--- a/server/src/uploads/file_example_XLSX_50.xlsx
+++ b/server/src/uploads/file_example_XLSX_50.xlsx
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t xml:space="preserve">aaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asfasfasfs</t>
   </si>
 </sst>
 </file>
@@ -564,8 +567,8 @@
       <c r="G3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="H3" s="0">
-        <v>1582</v>
+      <c r="H3" t="s" s="0">
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
